--- a/10_final_project/projects.xlsx
+++ b/10_final_project/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5102170ae7533958/Documents/Programmation/Formations_JEDHA/fullstack_mars_2024/10_final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{495EED60-B320-4437-89E5-BD0873E525C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4551A04-F7BF-47CD-9BFA-0694CBB09239}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{495EED60-B320-4437-89E5-BD0873E525C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3414315-3B84-4FCD-A0C8-62F54B2474FE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A33F6934-330D-448E-A98A-4C648D54B491}"/>
   </bookViews>
@@ -602,10 +602,10 @@
       <xdr:rowOff>1714500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1109133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -620,8 +620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12664440" y="3924300"/>
-          <a:ext cx="6621780" cy="3893820"/>
+          <a:off x="12675447" y="3941233"/>
+          <a:ext cx="10320020" cy="5456767"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -679,39 +679,23 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>10 min. =&gt; 5 slides</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>On va finir avec 10 slides</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Aller au delà du modèle,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>des chiffres, du code et de la technique</a:t>
+            <a:t>6 min. + 2 min. =&gt; 7 slides max dont</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> 1 d'intro</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Voir instructions : </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -719,6 +703,189 @@
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>https://docs.google.com/presentation/d/1KQAgW2PnA26K1B_kT7taHDvyLYgqLAoaKfjoNPBV29c/edit#slide=id.g87626dc2a8_1_0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Google sheet </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>https://docs.google.com/spreadsheets/d/1X3DMSP5GmzHSv1KsabI_9P6KcGh0e_pZ8MkJz2bZrvg/edit?usp=sharing</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Liste diffusion : </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>https://www.linkedin.com/events/demoday-54-d-couvrezdequoinos-l7200779725894492160/theater/</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Template obligatoire</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Slides US mais talk en FR</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" strike="sngStrike" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>On va finir avec 10 slides</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Google slides only</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Etre là à 18H</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Aller au delà du modèle,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>des chiffres, du code et de la technique</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="fr-FR" sz="1100">
@@ -917,6 +1084,14 @@
             </a:rPr>
             <a:t>10 - Conclusion - Terminer de manière positive. Réfléchir à ce qu'il y aura à l'écran pnedant les 3 min. de Q&amp;A</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="fr-FR" sz="1100">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -1472,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C2E7AC-1286-4FC1-84B0-DB92C81B15DE}">
   <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E21"/>
     </sheetView>
   </sheetViews>
